--- a/Resources/1994/Basic_Percentile_1994.xlsx
+++ b/Resources/1994/Basic_Percentile_1994.xlsx
@@ -1264,16 +1264,16 @@
     <t>currymi01</t>
   </si>
   <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Hakeem Olajuwon*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Scottie Pippen*</t>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Shawn Kemp</t>
@@ -1288,13 +1288,13 @@
     <t>Latrell Sprewell</t>
   </si>
   <si>
-    <t>Charles Barkley*</t>
+    <t>Charles Barkley</t>
   </si>
   <si>
     <t>Ron Harper</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Christian Laettner</t>
@@ -1303,10 +1303,10 @@
     <t>Tom Gugliotta</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
-  </si>
-  <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Patrick Ewing</t>
+  </si>
+  <si>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Vlade Divac</t>
@@ -1321,7 +1321,7 @@
     <t>Horace Grant</t>
   </si>
   <si>
-    <t>Clyde Drexler*</t>
+    <t>Clyde Drexler</t>
   </si>
   <si>
     <t>Clarence Weatherspoon</t>
@@ -1372,7 +1372,7 @@
     <t>Rony Seikaly</t>
   </si>
   <si>
-    <t>Dominique Wilkins*</t>
+    <t>Dominique Wilkins</t>
   </si>
   <si>
     <t>LaPhonso Ellis</t>
@@ -1384,7 +1384,7 @@
     <t>Stacey Augmon</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Terry Mills</t>
@@ -1399,7 +1399,7 @@
     <t>Jim Jackson</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Micheal Williams</t>
@@ -1414,10 +1414,10 @@
     <t>Vin Baker</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
-  </si>
-  <si>
-    <t>Alonzo Mourning*</t>
+    <t>Gary Payton</t>
+  </si>
+  <si>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Grant Long</t>
@@ -1432,7 +1432,7 @@
     <t>Vernon Maxwell</t>
   </si>
   <si>
-    <t>Dino Radja*</t>
+    <t>Dino Radja</t>
   </si>
   <si>
     <t>Dale Davis</t>
@@ -1474,7 +1474,7 @@
     <t>Larry Nance</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Ken Norman</t>
@@ -1486,7 +1486,7 @@
     <t>Kevin Johnson</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Eric Murdock</t>
@@ -1540,7 +1540,7 @@
     <t>Stanley Roberts</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>Brad Daugherty</t>
@@ -1615,7 +1615,7 @@
     <t>Loy Vaught</t>
   </si>
   <si>
-    <t>Isiah Thomas*</t>
+    <t>Isiah Thomas</t>
   </si>
   <si>
     <t>Doug West</t>
@@ -1678,7 +1678,7 @@
     <t>Sam Perkins</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Jon Koncak</t>
@@ -1699,7 +1699,7 @@
     <t>Benoit Benjamin</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Sam Bowie</t>
@@ -1927,7 +1927,7 @@
     <t>Anthony Avent</t>
   </si>
   <si>
-    <t>James Worthy*</t>
+    <t>James Worthy</t>
   </si>
   <si>
     <t>Corie Blount</t>
@@ -2167,7 +2167,7 @@
     <t>James Robinson</t>
   </si>
   <si>
-    <t>Moses Malone*</t>
+    <t>Moses Malone</t>
   </si>
   <si>
     <t>Byron Houston</t>
